--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="371">
   <si>
     <t>Viet Nam Electronics and Telecommunications Technology JSC</t>
   </si>
@@ -1140,9 +1140,6 @@
   </si>
   <si>
     <t>Điện trở hàn chéo 0R</t>
-  </si>
-  <si>
-    <t>Quantity/5000PCB</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1407,39 +1404,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1479,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1885,11 +1885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="10" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,144 +1900,134 @@
     <col min="5" max="5" width="43" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="18" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="40" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="43" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="43" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="43" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <f ca="1">TODAY()</f>
         <v>44804</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -2063,16 +2053,13 @@
         <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>371</v>
+        <v>13</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>1</v>
       </c>
@@ -2094,21 +2081,17 @@
       <c r="G11" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="I11" s="6">
-        <f>H11*5000</f>
-        <v>5000</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -2130,21 +2113,17 @@
       <c r="G12" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>7</v>
       </c>
-      <c r="I12" s="6">
-        <f t="shared" ref="I12:I74" si="0">H12*5000</f>
-        <v>35000</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="I12" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>3</v>
       </c>
@@ -2166,21 +2145,17 @@
       <c r="G13" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>4</v>
       </c>
@@ -2202,21 +2177,17 @@
       <c r="G14" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" s="6">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="I14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>5</v>
       </c>
@@ -2238,21 +2209,17 @@
       <c r="G15" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="I15" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>6</v>
       </c>
@@ -2274,21 +2241,17 @@
       <c r="G16" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="I16" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>7</v>
       </c>
@@ -2310,21 +2273,17 @@
       <c r="G17" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="I17" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>8</v>
       </c>
@@ -2346,21 +2305,17 @@
       <c r="G18" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>27</v>
       </c>
-      <c r="I18" s="6">
-        <f t="shared" si="0"/>
-        <v>135000</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="I18" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>9</v>
       </c>
@@ -2382,21 +2337,17 @@
       <c r="G19" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>6</v>
       </c>
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="I19" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>10</v>
       </c>
@@ -2418,21 +2369,17 @@
       <c r="G20" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="I20" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>11</v>
       </c>
@@ -2454,21 +2401,17 @@
       <c r="G21" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>8</v>
       </c>
-      <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="I21" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>12</v>
       </c>
@@ -2490,21 +2433,17 @@
       <c r="G22" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="I22" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>13</v>
       </c>
@@ -2526,21 +2465,17 @@
       <c r="G23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>4</v>
       </c>
-      <c r="I23" s="6">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="I23" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>14</v>
       </c>
@@ -2562,21 +2497,17 @@
       <c r="G24" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>3</v>
       </c>
-      <c r="I24" s="6">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K24" s="5" t="s">
+      <c r="I24" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>15</v>
       </c>
@@ -2598,21 +2529,17 @@
       <c r="G25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K25" s="5" t="s">
+      <c r="I25" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>16</v>
       </c>
@@ -2634,21 +2561,17 @@
       <c r="G26" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>1</v>
       </c>
-      <c r="I26" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="I26" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>17</v>
       </c>
@@ -2670,21 +2593,17 @@
       <c r="G27" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>1</v>
       </c>
-      <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="I27" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J27" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>18</v>
       </c>
@@ -2706,21 +2625,17 @@
       <c r="G28" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="5">
         <v>1</v>
       </c>
-      <c r="I28" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="I28" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>19</v>
       </c>
@@ -2742,21 +2657,17 @@
       <c r="G29" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="5">
         <v>1</v>
       </c>
-      <c r="I29" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K29" s="5" t="s">
+      <c r="I29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>20</v>
       </c>
@@ -2778,21 +2689,17 @@
       <c r="G30" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="5">
         <v>1</v>
       </c>
-      <c r="I30" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K30" s="5" t="s">
+      <c r="I30" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>21</v>
       </c>
@@ -2814,21 +2721,17 @@
       <c r="G31" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="5">
         <v>1</v>
       </c>
-      <c r="I31" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K31" s="5" t="s">
+      <c r="I31" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>22</v>
       </c>
@@ -2850,21 +2753,17 @@
       <c r="G32" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="5">
         <v>1</v>
       </c>
-      <c r="I32" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="I32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>23</v>
       </c>
@@ -2886,453 +2785,401 @@
       <c r="G33" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="5">
         <v>1</v>
       </c>
-      <c r="I33" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K33" s="5" t="s">
+      <c r="I33" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>24</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="7">
         <v>3</v>
       </c>
-      <c r="I34" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K34" s="13" t="s">
+      <c r="I34" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>25</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="5">
         <v>5</v>
       </c>
-      <c r="I35" s="19">
-        <f t="shared" si="0"/>
-        <v>25000</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="I35" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>26</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="7">
         <v>2</v>
       </c>
-      <c r="I36" s="19">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K36" s="13" t="s">
+      <c r="I36" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>27</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="7">
         <v>3</v>
       </c>
-      <c r="I37" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K37" s="13" t="s">
+      <c r="I37" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>28</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="7">
         <v>1</v>
       </c>
-      <c r="I38" s="19">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K38" s="13" t="s">
+      <c r="I38" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>29</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="5">
         <v>3</v>
       </c>
-      <c r="I39" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K39" s="13" t="s">
+      <c r="I39" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>30</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="5">
         <v>3</v>
       </c>
-      <c r="I40" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K40" s="13" t="s">
+      <c r="I40" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>31</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="5">
         <v>6</v>
       </c>
-      <c r="I41" s="19">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K41" s="13" t="s">
+      <c r="I41" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>32</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="7">
         <v>8</v>
       </c>
-      <c r="I42" s="19">
-        <f t="shared" si="0"/>
-        <v>40000</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K42" s="13" t="s">
+      <c r="I42" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>33</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="5">
         <v>3</v>
       </c>
-      <c r="I43" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K43" s="13" t="s">
+      <c r="I43" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>34</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="19">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K44" s="13" t="s">
+      <c r="I44" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>35</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G45" s="13" t="s">
+      <c r="G45" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="7">
         <v>24</v>
       </c>
-      <c r="I45" s="19">
-        <f t="shared" si="0"/>
-        <v>120000</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K45" s="13" t="s">
+      <c r="I45" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J45" s="7" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>36</v>
       </c>
@@ -3354,21 +3201,17 @@
       <c r="G46" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K46" s="5" t="s">
+      <c r="I46" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J46" s="5" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>37</v>
       </c>
@@ -3390,57 +3233,49 @@
       <c r="G47" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="5">
         <v>4</v>
       </c>
-      <c r="I47" s="6">
-        <f t="shared" si="0"/>
-        <v>20000</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K47" s="5" t="s">
+      <c r="I47" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>38</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="7">
         <v>3</v>
       </c>
-      <c r="I48" s="19">
-        <f t="shared" si="0"/>
-        <v>15000</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="K48" s="13" t="s">
+      <c r="I48" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>39</v>
       </c>
@@ -3462,57 +3297,49 @@
       <c r="G49" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>1</v>
       </c>
-      <c r="I49" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K49" s="5" t="s">
+      <c r="I49" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>40</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="42" t="s">
         <v>358</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="42" t="s">
         <v>357</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="13" t="s">
+      <c r="G50" s="42" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="44">
         <v>1</v>
       </c>
-      <c r="I50" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="K50" s="15" t="s">
+      <c r="I50" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="J50" s="45" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>41</v>
       </c>
@@ -3534,21 +3361,17 @@
       <c r="G51" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="5">
         <v>1</v>
       </c>
-      <c r="I51" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K51" s="5" t="s">
+      <c r="I51" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>42</v>
       </c>
@@ -3570,21 +3393,17 @@
       <c r="G52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="5">
         <v>1</v>
       </c>
-      <c r="I52" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K52" s="5" t="s">
+      <c r="I52" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43</v>
       </c>
@@ -3606,21 +3425,17 @@
       <c r="G53" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="5">
         <v>1</v>
       </c>
-      <c r="I53" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K53" s="5" t="s">
+      <c r="I53" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>44</v>
       </c>
@@ -3642,21 +3457,17 @@
       <c r="G54" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="5">
         <v>1</v>
       </c>
-      <c r="I54" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K54" s="5" t="s">
+      <c r="I54" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>45</v>
       </c>
@@ -3678,21 +3489,17 @@
       <c r="G55" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="5">
         <v>1</v>
       </c>
-      <c r="I55" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K55" s="5" t="s">
+      <c r="I55" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>46</v>
       </c>
@@ -3714,21 +3521,17 @@
       <c r="G56" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="5">
         <v>1</v>
       </c>
-      <c r="I56" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K56" s="5" t="s">
+      <c r="I56" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>47</v>
       </c>
@@ -3750,21 +3553,17 @@
       <c r="G57" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="5">
         <v>1</v>
       </c>
-      <c r="I57" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K57" s="5" t="s">
+      <c r="I57" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J57" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>48</v>
       </c>
@@ -3786,21 +3585,17 @@
       <c r="G58" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="5">
         <v>1</v>
       </c>
-      <c r="I58" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K58" s="5" t="s">
+      <c r="I58" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>49</v>
       </c>
@@ -3822,21 +3617,17 @@
       <c r="G59" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="5">
         <v>1</v>
       </c>
-      <c r="I59" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K59" s="5" t="s">
+      <c r="I59" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>50</v>
       </c>
@@ -3858,21 +3649,17 @@
       <c r="G60" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="5">
         <v>1</v>
       </c>
-      <c r="I60" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="I60" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>51</v>
       </c>
@@ -3894,21 +3681,17 @@
       <c r="G61" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="5">
         <v>1</v>
       </c>
-      <c r="I61" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K61" s="5" t="s">
+      <c r="I61" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>52</v>
       </c>
@@ -3928,19 +3711,15 @@
       <c r="G62" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="9">
         <v>1</v>
       </c>
-      <c r="I62" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="K62" s="8"/>
-    </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>53</v>
       </c>
@@ -3962,21 +3741,17 @@
       <c r="G63" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="5">
         <v>1</v>
       </c>
-      <c r="I63" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K63" s="5" t="s">
+      <c r="I63" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>54</v>
       </c>
@@ -3998,21 +3773,17 @@
       <c r="G64" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="5">
         <v>2</v>
       </c>
-      <c r="I64" s="6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K64" s="5" t="s">
+      <c r="I64" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>55</v>
       </c>
@@ -4034,273 +3805,233 @@
       <c r="G65" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="5">
         <v>1</v>
       </c>
-      <c r="I65" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="K65" s="5" t="s">
+      <c r="I65" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>56</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="39" t="s">
         <v>346</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="39">
         <v>1</v>
       </c>
-      <c r="I66" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K66" s="10" t="s">
+      <c r="I66" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" s="39" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>57</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="10" t="s">
+      <c r="F67" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="10" t="s">
+      <c r="G67" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="39">
         <v>1</v>
       </c>
-      <c r="I67" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K67" s="10" t="s">
+      <c r="I67" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J67" s="39" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>58</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11" t="s">
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="H68" s="17">
+      <c r="H68" s="40">
         <v>1</v>
       </c>
-      <c r="I68" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" s="40"/>
+    </row>
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>59</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="17">
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40">
         <v>1</v>
       </c>
-      <c r="I69" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J69" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K69" s="11"/>
-    </row>
-    <row r="70" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J69" s="40"/>
+    </row>
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>60</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="17">
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40">
         <v>1</v>
       </c>
-      <c r="I70" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K70" s="11"/>
-    </row>
-    <row r="71" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J70" s="40"/>
+    </row>
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>61</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="17">
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="40"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="40">
         <v>1</v>
       </c>
-      <c r="I71" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J71" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K71" s="11"/>
-    </row>
-    <row r="72" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J71" s="40"/>
+    </row>
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>62</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="17">
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="40">
         <v>1</v>
       </c>
-      <c r="I72" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J72" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K72" s="11"/>
-    </row>
-    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J72" s="40"/>
+    </row>
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>63</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="17">
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="40">
         <v>1</v>
       </c>
-      <c r="I73" s="6">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K73" s="11"/>
-    </row>
-    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J73" s="40"/>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>64</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="17">
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40">
         <v>2</v>
       </c>
-      <c r="I74" s="6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="K74" s="11"/>
+      <c r="I74" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E1:K2"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="E1:J2"/>
     <mergeCell ref="A2:D6"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="E5:K5"/>
-    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
@@ -1419,6 +1419,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1479,29 +1502,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="1049" name="Ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,8 +1888,8 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="10" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1909,123 +1909,123 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="32" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="35" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="35" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="46"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="35" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="24">
         <f ca="1">TODAY()</f>
-        <v>44804</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="17"/>
+        <v>44860</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -2795,7 +2795,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>24</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>26</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>27</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>28</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>32</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>35</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>38</v>
       </c>
@@ -3307,35 +3307,35 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="20" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>40</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C50" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F50" s="42" t="s">
+      <c r="F50" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="G50" s="42" t="s">
+      <c r="G50" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="44">
+      <c r="H50" s="18">
         <v>1</v>
       </c>
-      <c r="I50" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="J50" s="45" t="s">
+      <c r="I50" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J50" s="19" t="s">
         <v>294</v>
       </c>
     </row>
@@ -3819,31 +3819,31 @@
       <c r="A66" s="6">
         <v>56</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="F66" s="39" t="s">
+      <c r="F66" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G66" s="39" t="s">
+      <c r="G66" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H66" s="39">
+      <c r="H66" s="13">
         <v>1</v>
       </c>
-      <c r="I66" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J66" s="39" t="s">
+      <c r="I66" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3851,31 +3851,31 @@
       <c r="A67" s="6">
         <v>57</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="39" t="s">
+      <c r="D67" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E67" s="39" t="s">
+      <c r="E67" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="39" t="s">
+      <c r="F67" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="G67" s="39" t="s">
+      <c r="G67" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="39">
+      <c r="H67" s="13">
         <v>1</v>
       </c>
-      <c r="I67" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J67" s="39" t="s">
+      <c r="I67" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3883,143 +3883,143 @@
       <c r="A68" s="6">
         <v>58</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="H68" s="40">
+      <c r="H68" s="14">
         <v>1</v>
       </c>
-      <c r="I68" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J68" s="40"/>
+      <c r="I68" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>59</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
-      <c r="H69" s="40">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14">
         <v>1</v>
       </c>
-      <c r="I69" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J69" s="40"/>
+      <c r="I69" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>60</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="40">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14">
         <v>1</v>
       </c>
-      <c r="I70" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J70" s="40"/>
+      <c r="I70" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>61</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="40">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14">
         <v>1</v>
       </c>
-      <c r="I71" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J71" s="40"/>
+      <c r="I71" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>62</v>
       </c>
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40">
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14">
         <v>1</v>
       </c>
-      <c r="I72" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J72" s="40"/>
+      <c r="I72" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>63</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14">
         <v>1</v>
       </c>
-      <c r="I73" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J73" s="40"/>
+      <c r="I73" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>64</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="C74" s="40"/>
-      <c r="D74" s="40"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
-      <c r="H74" s="40">
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14">
         <v>2</v>
       </c>
-      <c r="I74" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="J74" s="40"/>
+      <c r="I74" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="J74" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Gia Công/Bomlist-2022/BOM for TrackerLE-4G V2 (Update 31-08-2022).xlsx
@@ -1539,7 +1539,7 @@
         <xdr:cNvPr id="1049" name="Ảnh 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9C229E-5FA4-4F7D-89AE-353624616E41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,8 +1888,8 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="10" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2003,7 +2003,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <f ca="1">TODAY()</f>
-        <v>44860</v>
+        <v>44867</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
